--- a/US/data/CBS/NFIB/Earnings Trends.xlsx
+++ b/US/data/CBS/NFIB/Earnings Trends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9016762-780F-4350-916D-88CA39F09D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8160F043-15C4-4A2B-9B5D-A0C19A31065A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="485">
   <si>
     <t>Month/Year</t>
   </si>
@@ -70,1338 +70,1347 @@
     <t>1986/9/1</t>
   </si>
   <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>1986/10/1</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>1986/11/1</t>
+  </si>
+  <si>
+    <t>1986/12/1</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>1987/1/1</t>
+  </si>
+  <si>
+    <t>1987/2/1</t>
+  </si>
+  <si>
+    <t>1987/3/1</t>
+  </si>
+  <si>
+    <t>1987/4/1</t>
+  </si>
+  <si>
+    <t>1987/5/1</t>
+  </si>
+  <si>
+    <t>-9</t>
+  </si>
+  <si>
+    <t>1987/6/1</t>
+  </si>
+  <si>
+    <t>1987/7/1</t>
+  </si>
+  <si>
+    <t>1987/8/1</t>
+  </si>
+  <si>
+    <t>1987/9/1</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>1987/10/1</t>
+  </si>
+  <si>
+    <t>1987/11/1</t>
+  </si>
+  <si>
+    <t>1987/12/1</t>
+  </si>
+  <si>
+    <t>1988/1/1</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>1988/2/1</t>
+  </si>
+  <si>
+    <t>1988/3/1</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>1988/4/1</t>
+  </si>
+  <si>
+    <t>1988/5/1</t>
+  </si>
+  <si>
+    <t>1988/6/1</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>1988/7/1</t>
+  </si>
+  <si>
+    <t>1988/8/1</t>
+  </si>
+  <si>
+    <t>1988/9/1</t>
+  </si>
+  <si>
+    <t>1988/10/1</t>
+  </si>
+  <si>
+    <t>1988/11/1</t>
+  </si>
+  <si>
+    <t>1988/12/1</t>
+  </si>
+  <si>
+    <t>1989/1/1</t>
+  </si>
+  <si>
+    <t>1989/2/1</t>
+  </si>
+  <si>
+    <t>1989/3/1</t>
+  </si>
+  <si>
+    <t>1989/4/1</t>
+  </si>
+  <si>
     <t>-13</t>
   </si>
   <si>
-    <t>1986/10/1</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>1986/11/1</t>
-  </si>
-  <si>
-    <t>1986/12/1</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>1987/1/1</t>
-  </si>
-  <si>
-    <t>1987/2/1</t>
-  </si>
-  <si>
-    <t>1987/3/1</t>
-  </si>
-  <si>
-    <t>1987/4/1</t>
-  </si>
-  <si>
-    <t>1987/5/1</t>
-  </si>
-  <si>
-    <t>-9</t>
-  </si>
-  <si>
-    <t>1987/6/1</t>
-  </si>
-  <si>
-    <t>1987/7/1</t>
-  </si>
-  <si>
-    <t>1987/8/1</t>
-  </si>
-  <si>
-    <t>1987/9/1</t>
+    <t>1989/5/1</t>
+  </si>
+  <si>
+    <t>1989/6/1</t>
+  </si>
+  <si>
+    <t>1989/7/1</t>
+  </si>
+  <si>
+    <t>1989/8/1</t>
+  </si>
+  <si>
+    <t>1989/9/1</t>
+  </si>
+  <si>
+    <t>1989/10/1</t>
+  </si>
+  <si>
+    <t>1989/11/1</t>
+  </si>
+  <si>
+    <t>1989/12/1</t>
+  </si>
+  <si>
+    <t>1990/1/1</t>
+  </si>
+  <si>
+    <t>1990/2/1</t>
+  </si>
+  <si>
+    <t>1990/3/1</t>
+  </si>
+  <si>
+    <t>1990/4/1</t>
+  </si>
+  <si>
+    <t>1990/5/1</t>
+  </si>
+  <si>
+    <t>1990/6/1</t>
+  </si>
+  <si>
+    <t>1990/7/1</t>
+  </si>
+  <si>
+    <t>1990/8/1</t>
+  </si>
+  <si>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>1990/9/1</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>1990/10/1</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>1990/11/1</t>
+  </si>
+  <si>
+    <t>-22</t>
+  </si>
+  <si>
+    <t>1990/12/1</t>
+  </si>
+  <si>
+    <t>-26</t>
+  </si>
+  <si>
+    <t>1991/1/1</t>
+  </si>
+  <si>
+    <t>1991/2/1</t>
+  </si>
+  <si>
+    <t>-21</t>
+  </si>
+  <si>
+    <t>1991/3/1</t>
+  </si>
+  <si>
+    <t>-23</t>
+  </si>
+  <si>
+    <t>1991/4/1</t>
+  </si>
+  <si>
+    <t>1991/5/1</t>
+  </si>
+  <si>
+    <t>-28</t>
+  </si>
+  <si>
+    <t>1991/6/1</t>
+  </si>
+  <si>
+    <t>-30</t>
+  </si>
+  <si>
+    <t>1991/7/1</t>
+  </si>
+  <si>
+    <t>1991/8/1</t>
+  </si>
+  <si>
+    <t>1991/9/1</t>
+  </si>
+  <si>
+    <t>-18</t>
+  </si>
+  <si>
+    <t>1991/10/1</t>
+  </si>
+  <si>
+    <t>-27</t>
+  </si>
+  <si>
+    <t>1991/11/1</t>
+  </si>
+  <si>
+    <t>1991/12/1</t>
+  </si>
+  <si>
+    <t>1992/1/1</t>
+  </si>
+  <si>
+    <t>1992/2/1</t>
+  </si>
+  <si>
+    <t>1992/3/1</t>
+  </si>
+  <si>
+    <t>1992/4/1</t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>1992/5/1</t>
+  </si>
+  <si>
+    <t>-17</t>
+  </si>
+  <si>
+    <t>1992/6/1</t>
+  </si>
+  <si>
+    <t>1992/7/1</t>
+  </si>
+  <si>
+    <t>1992/8/1</t>
+  </si>
+  <si>
+    <t>1992/9/1</t>
+  </si>
+  <si>
+    <t>1992/10/1</t>
+  </si>
+  <si>
+    <t>1992/11/1</t>
+  </si>
+  <si>
+    <t>1992/12/1</t>
+  </si>
+  <si>
+    <t>1993/1/1</t>
+  </si>
+  <si>
+    <t>1993/2/1</t>
+  </si>
+  <si>
+    <t>1993/3/1</t>
+  </si>
+  <si>
+    <t>1993/4/1</t>
+  </si>
+  <si>
+    <t>1993/5/1</t>
+  </si>
+  <si>
+    <t>1993/6/1</t>
+  </si>
+  <si>
+    <t>1993/7/1</t>
+  </si>
+  <si>
+    <t>1993/8/1</t>
+  </si>
+  <si>
+    <t>1993/9/1</t>
+  </si>
+  <si>
+    <t>1993/10/1</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>1993/11/1</t>
+  </si>
+  <si>
+    <t>1993/12/1</t>
+  </si>
+  <si>
+    <t>1994/1/1</t>
+  </si>
+  <si>
+    <t>1994/2/1</t>
+  </si>
+  <si>
+    <t>1994/3/1</t>
+  </si>
+  <si>
+    <t>1994/4/1</t>
+  </si>
+  <si>
+    <t>1994/5/1</t>
+  </si>
+  <si>
+    <t>1994/6/1</t>
+  </si>
+  <si>
+    <t>1994/7/1</t>
+  </si>
+  <si>
+    <t>1994/8/1</t>
+  </si>
+  <si>
+    <t>1994/9/1</t>
+  </si>
+  <si>
+    <t>1994/10/1</t>
+  </si>
+  <si>
+    <t>1994/11/1</t>
+  </si>
+  <si>
+    <t>1994/12/1</t>
+  </si>
+  <si>
+    <t>1995/1/1</t>
+  </si>
+  <si>
+    <t>1995/2/1</t>
+  </si>
+  <si>
+    <t>1995/3/1</t>
+  </si>
+  <si>
+    <t>1995/4/1</t>
+  </si>
+  <si>
+    <t>1995/5/1</t>
+  </si>
+  <si>
+    <t>1995/6/1</t>
+  </si>
+  <si>
+    <t>1995/7/1</t>
+  </si>
+  <si>
+    <t>1995/8/1</t>
+  </si>
+  <si>
+    <t>1995/9/1</t>
+  </si>
+  <si>
+    <t>1995/10/1</t>
+  </si>
+  <si>
+    <t>1995/11/1</t>
+  </si>
+  <si>
+    <t>1995/12/1</t>
+  </si>
+  <si>
+    <t>1996/1/1</t>
+  </si>
+  <si>
+    <t>1996/2/1</t>
+  </si>
+  <si>
+    <t>1996/3/1</t>
+  </si>
+  <si>
+    <t>1996/4/1</t>
+  </si>
+  <si>
+    <t>1996/5/1</t>
+  </si>
+  <si>
+    <t>1996/6/1</t>
+  </si>
+  <si>
+    <t>1996/7/1</t>
+  </si>
+  <si>
+    <t>1996/8/1</t>
+  </si>
+  <si>
+    <t>1996/9/1</t>
+  </si>
+  <si>
+    <t>1996/10/1</t>
+  </si>
+  <si>
+    <t>1996/11/1</t>
+  </si>
+  <si>
+    <t>1996/12/1</t>
+  </si>
+  <si>
+    <t>1997/1/1</t>
+  </si>
+  <si>
+    <t>1997/2/1</t>
+  </si>
+  <si>
+    <t>1997/3/1</t>
+  </si>
+  <si>
+    <t>1997/4/1</t>
+  </si>
+  <si>
+    <t>1997/5/1</t>
+  </si>
+  <si>
+    <t>1997/6/1</t>
+  </si>
+  <si>
+    <t>1997/7/1</t>
+  </si>
+  <si>
+    <t>1997/8/1</t>
+  </si>
+  <si>
+    <t>1997/9/1</t>
+  </si>
+  <si>
+    <t>1997/10/1</t>
+  </si>
+  <si>
+    <t>1997/11/1</t>
+  </si>
+  <si>
+    <t>1997/12/1</t>
+  </si>
+  <si>
+    <t>1998/1/1</t>
+  </si>
+  <si>
+    <t>1998/2/1</t>
+  </si>
+  <si>
+    <t>1998/3/1</t>
+  </si>
+  <si>
+    <t>1998/4/1</t>
+  </si>
+  <si>
+    <t>1998/5/1</t>
+  </si>
+  <si>
+    <t>1998/6/1</t>
+  </si>
+  <si>
+    <t>1998/7/1</t>
+  </si>
+  <si>
+    <t>1998/8/1</t>
+  </si>
+  <si>
+    <t>1998/9/1</t>
+  </si>
+  <si>
+    <t>1998/10/1</t>
+  </si>
+  <si>
+    <t>1998/11/1</t>
+  </si>
+  <si>
+    <t>1998/12/1</t>
+  </si>
+  <si>
+    <t>1999/1/1</t>
+  </si>
+  <si>
+    <t>1999/2/1</t>
+  </si>
+  <si>
+    <t>1999/3/1</t>
+  </si>
+  <si>
+    <t>1999/4/1</t>
+  </si>
+  <si>
+    <t>1999/5/1</t>
+  </si>
+  <si>
+    <t>1999/6/1</t>
+  </si>
+  <si>
+    <t>1999/7/1</t>
+  </si>
+  <si>
+    <t>1999/8/1</t>
+  </si>
+  <si>
+    <t>1999/9/1</t>
+  </si>
+  <si>
+    <t>1999/10/1</t>
+  </si>
+  <si>
+    <t>1999/11/1</t>
+  </si>
+  <si>
+    <t>1999/12/1</t>
+  </si>
+  <si>
+    <t>2000/1/1</t>
+  </si>
+  <si>
+    <t>2000/2/1</t>
+  </si>
+  <si>
+    <t>2000/3/1</t>
+  </si>
+  <si>
+    <t>2000/4/1</t>
+  </si>
+  <si>
+    <t>2000/5/1</t>
+  </si>
+  <si>
+    <t>2000/6/1</t>
+  </si>
+  <si>
+    <t>2000/7/1</t>
+  </si>
+  <si>
+    <t>2000/8/1</t>
+  </si>
+  <si>
+    <t>2000/9/1</t>
+  </si>
+  <si>
+    <t>2000/10/1</t>
+  </si>
+  <si>
+    <t>2000/11/1</t>
+  </si>
+  <si>
+    <t>2000/12/1</t>
+  </si>
+  <si>
+    <t>2001/1/1</t>
+  </si>
+  <si>
+    <t>2001/2/1</t>
+  </si>
+  <si>
+    <t>2001/3/1</t>
+  </si>
+  <si>
+    <t>2001/4/1</t>
+  </si>
+  <si>
+    <t>2001/5/1</t>
+  </si>
+  <si>
+    <t>2001/6/1</t>
+  </si>
+  <si>
+    <t>2001/7/1</t>
+  </si>
+  <si>
+    <t>2001/8/1</t>
+  </si>
+  <si>
+    <t>2001/9/1</t>
+  </si>
+  <si>
+    <t>2001/10/1</t>
+  </si>
+  <si>
+    <t>2001/11/1</t>
+  </si>
+  <si>
+    <t>2001/12/1</t>
+  </si>
+  <si>
+    <t>2002/1/1</t>
+  </si>
+  <si>
+    <t>2002/2/1</t>
+  </si>
+  <si>
+    <t>2002/3/1</t>
+  </si>
+  <si>
+    <t>2002/4/1</t>
+  </si>
+  <si>
+    <t>2002/5/1</t>
+  </si>
+  <si>
+    <t>2002/6/1</t>
+  </si>
+  <si>
+    <t>2002/7/1</t>
+  </si>
+  <si>
+    <t>2002/8/1</t>
+  </si>
+  <si>
+    <t>2002/9/1</t>
+  </si>
+  <si>
+    <t>2002/10/1</t>
+  </si>
+  <si>
+    <t>2002/11/1</t>
+  </si>
+  <si>
+    <t>2002/12/1</t>
+  </si>
+  <si>
+    <t>2003/1/1</t>
+  </si>
+  <si>
+    <t>2003/2/1</t>
+  </si>
+  <si>
+    <t>-31</t>
+  </si>
+  <si>
+    <t>2003/3/1</t>
+  </si>
+  <si>
+    <t>2003/4/1</t>
+  </si>
+  <si>
+    <t>2003/5/1</t>
+  </si>
+  <si>
+    <t>2003/6/1</t>
+  </si>
+  <si>
+    <t>2003/7/1</t>
+  </si>
+  <si>
+    <t>2003/8/1</t>
+  </si>
+  <si>
+    <t>2003/9/1</t>
+  </si>
+  <si>
+    <t>2003/10/1</t>
+  </si>
+  <si>
+    <t>2003/11/1</t>
+  </si>
+  <si>
+    <t>2003/12/1</t>
+  </si>
+  <si>
+    <t>2004/1/1</t>
+  </si>
+  <si>
+    <t>2004/2/1</t>
+  </si>
+  <si>
+    <t>2004/3/1</t>
+  </si>
+  <si>
+    <t>2004/4/1</t>
+  </si>
+  <si>
+    <t>2004/5/1</t>
+  </si>
+  <si>
+    <t>2004/6/1</t>
+  </si>
+  <si>
+    <t>2004/7/1</t>
+  </si>
+  <si>
+    <t>2004/8/1</t>
+  </si>
+  <si>
+    <t>2004/9/1</t>
+  </si>
+  <si>
+    <t>2004/10/1</t>
+  </si>
+  <si>
+    <t>2004/11/1</t>
+  </si>
+  <si>
+    <t>2004/12/1</t>
+  </si>
+  <si>
+    <t>2005/1/1</t>
+  </si>
+  <si>
+    <t>2005/2/1</t>
+  </si>
+  <si>
+    <t>2005/3/1</t>
+  </si>
+  <si>
+    <t>2005/4/1</t>
+  </si>
+  <si>
+    <t>2005/5/1</t>
+  </si>
+  <si>
+    <t>2005/6/1</t>
+  </si>
+  <si>
+    <t>2005/7/1</t>
+  </si>
+  <si>
+    <t>2005/8/1</t>
+  </si>
+  <si>
+    <t>2005/9/1</t>
+  </si>
+  <si>
+    <t>2005/10/1</t>
+  </si>
+  <si>
+    <t>2005/11/1</t>
+  </si>
+  <si>
+    <t>2005/12/1</t>
+  </si>
+  <si>
+    <t>2006/1/1</t>
+  </si>
+  <si>
+    <t>2006/2/1</t>
+  </si>
+  <si>
+    <t>2006/3/1</t>
+  </si>
+  <si>
+    <t>2006/4/1</t>
+  </si>
+  <si>
+    <t>2006/5/1</t>
+  </si>
+  <si>
+    <t>2006/6/1</t>
+  </si>
+  <si>
+    <t>2006/7/1</t>
+  </si>
+  <si>
+    <t>2006/8/1</t>
+  </si>
+  <si>
+    <t>2006/9/1</t>
+  </si>
+  <si>
+    <t>2006/10/1</t>
+  </si>
+  <si>
+    <t>2006/11/1</t>
+  </si>
+  <si>
+    <t>2006/12/1</t>
+  </si>
+  <si>
+    <t>2007/1/1</t>
+  </si>
+  <si>
+    <t>2007/2/1</t>
+  </si>
+  <si>
+    <t>2007/3/1</t>
+  </si>
+  <si>
+    <t>2007/4/1</t>
+  </si>
+  <si>
+    <t>2007/5/1</t>
+  </si>
+  <si>
+    <t>2007/6/1</t>
+  </si>
+  <si>
+    <t>2007/7/1</t>
+  </si>
+  <si>
+    <t>2007/8/1</t>
+  </si>
+  <si>
+    <t>2007/9/1</t>
+  </si>
+  <si>
+    <t>2007/10/1</t>
+  </si>
+  <si>
+    <t>2007/11/1</t>
+  </si>
+  <si>
+    <t>2007/12/1</t>
+  </si>
+  <si>
+    <t>2008/1/1</t>
+  </si>
+  <si>
+    <t>2008/2/1</t>
+  </si>
+  <si>
+    <t>2008/3/1</t>
+  </si>
+  <si>
+    <t>-32</t>
+  </si>
+  <si>
+    <t>2008/4/1</t>
+  </si>
+  <si>
+    <t>-29</t>
+  </si>
+  <si>
+    <t>2008/5/1</t>
+  </si>
+  <si>
+    <t>2008/6/1</t>
+  </si>
+  <si>
+    <t>-33</t>
+  </si>
+  <si>
+    <t>2008/7/1</t>
+  </si>
+  <si>
+    <t>-37</t>
+  </si>
+  <si>
+    <t>2008/8/1</t>
+  </si>
+  <si>
+    <t>2008/9/1</t>
+  </si>
+  <si>
+    <t>-36</t>
+  </si>
+  <si>
+    <t>2008/10/1</t>
+  </si>
+  <si>
+    <t>2008/11/1</t>
+  </si>
+  <si>
+    <t>-38</t>
+  </si>
+  <si>
+    <t>2008/12/1</t>
+  </si>
+  <si>
+    <t>-41</t>
+  </si>
+  <si>
+    <t>2009/1/1</t>
+  </si>
+  <si>
+    <t>-45</t>
+  </si>
+  <si>
+    <t>2009/2/1</t>
+  </si>
+  <si>
+    <t>-43</t>
+  </si>
+  <si>
+    <t>2009/3/1</t>
+  </si>
+  <si>
+    <t>2009/4/1</t>
+  </si>
+  <si>
+    <t>-44</t>
+  </si>
+  <si>
+    <t>2009/5/1</t>
+  </si>
+  <si>
+    <t>2009/6/1</t>
+  </si>
+  <si>
+    <t>-42</t>
+  </si>
+  <si>
+    <t>2009/7/1</t>
+  </si>
+  <si>
+    <t>2009/8/1</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>2009/9/1</t>
+  </si>
+  <si>
+    <t>2009/10/1</t>
+  </si>
+  <si>
+    <t>2009/11/1</t>
+  </si>
+  <si>
+    <t>2009/12/1</t>
+  </si>
+  <si>
+    <t>2010/1/1</t>
+  </si>
+  <si>
+    <t>2010/2/1</t>
+  </si>
+  <si>
+    <t>2010/3/1</t>
+  </si>
+  <si>
+    <t>2010/4/1</t>
+  </si>
+  <si>
+    <t>2010/5/1</t>
+  </si>
+  <si>
+    <t>2010/6/1</t>
+  </si>
+  <si>
+    <t>2010/7/1</t>
+  </si>
+  <si>
+    <t>2010/8/1</t>
+  </si>
+  <si>
+    <t>2010/9/1</t>
+  </si>
+  <si>
+    <t>-34</t>
+  </si>
+  <si>
+    <t>2010/10/1</t>
+  </si>
+  <si>
+    <t>2010/11/1</t>
+  </si>
+  <si>
+    <t>2010/12/1</t>
+  </si>
+  <si>
+    <t>2011/1/1</t>
+  </si>
+  <si>
+    <t>2011/2/1</t>
+  </si>
+  <si>
+    <t>2011/3/1</t>
+  </si>
+  <si>
+    <t>2011/4/1</t>
+  </si>
+  <si>
+    <t>2011/5/1</t>
+  </si>
+  <si>
+    <t>2011/6/1</t>
+  </si>
+  <si>
+    <t>2011/7/1</t>
+  </si>
+  <si>
+    <t>2011/8/1</t>
+  </si>
+  <si>
+    <t>2011/9/1</t>
+  </si>
+  <si>
+    <t>2011/10/1</t>
+  </si>
+  <si>
+    <t>2011/11/1</t>
+  </si>
+  <si>
+    <t>2011/12/1</t>
+  </si>
+  <si>
+    <t>2012/1/1</t>
+  </si>
+  <si>
+    <t>2012/2/1</t>
+  </si>
+  <si>
+    <t>2012/3/1</t>
+  </si>
+  <si>
+    <t>2012/4/1</t>
+  </si>
+  <si>
+    <t>2012/5/1</t>
+  </si>
+  <si>
+    <t>2012/6/1</t>
+  </si>
+  <si>
+    <t>2012/7/1</t>
+  </si>
+  <si>
+    <t>2012/8/1</t>
+  </si>
+  <si>
+    <t>2012/9/1</t>
+  </si>
+  <si>
+    <t>2012/10/1</t>
+  </si>
+  <si>
+    <t>2012/11/1</t>
+  </si>
+  <si>
+    <t>2012/12/1</t>
+  </si>
+  <si>
+    <t>2013/1/1</t>
+  </si>
+  <si>
+    <t>2013/2/1</t>
+  </si>
+  <si>
+    <t>2013/3/1</t>
+  </si>
+  <si>
+    <t>2013/4/1</t>
+  </si>
+  <si>
+    <t>2013/5/1</t>
+  </si>
+  <si>
+    <t>2013/6/1</t>
+  </si>
+  <si>
+    <t>2013/7/1</t>
+  </si>
+  <si>
+    <t>2013/8/1</t>
+  </si>
+  <si>
+    <t>2013/9/1</t>
+  </si>
+  <si>
+    <t>2013/10/1</t>
+  </si>
+  <si>
+    <t>2013/11/1</t>
+  </si>
+  <si>
+    <t>2013/12/1</t>
+  </si>
+  <si>
+    <t>2014/1/1</t>
+  </si>
+  <si>
+    <t>2014/2/1</t>
+  </si>
+  <si>
+    <t>2014/3/1</t>
+  </si>
+  <si>
+    <t>2014/4/1</t>
+  </si>
+  <si>
+    <t>2014/5/1</t>
+  </si>
+  <si>
+    <t>2014/6/1</t>
+  </si>
+  <si>
+    <t>2014/7/1</t>
+  </si>
+  <si>
+    <t>2014/8/1</t>
+  </si>
+  <si>
+    <t>2014/9/1</t>
+  </si>
+  <si>
+    <t>2014/10/1</t>
+  </si>
+  <si>
+    <t>2014/11/1</t>
+  </si>
+  <si>
+    <t>2014/12/1</t>
+  </si>
+  <si>
+    <t>2015/1/1</t>
+  </si>
+  <si>
+    <t>2015/2/1</t>
+  </si>
+  <si>
+    <t>2015/3/1</t>
+  </si>
+  <si>
+    <t>2015/4/1</t>
+  </si>
+  <si>
+    <t>2015/5/1</t>
+  </si>
+  <si>
+    <t>2015/6/1</t>
+  </si>
+  <si>
+    <t>2015/7/1</t>
+  </si>
+  <si>
+    <t>2015/8/1</t>
+  </si>
+  <si>
+    <t>2015/9/1</t>
+  </si>
+  <si>
+    <t>2015/10/1</t>
+  </si>
+  <si>
+    <t>2015/11/1</t>
+  </si>
+  <si>
+    <t>2015/12/1</t>
+  </si>
+  <si>
+    <t>2016/1/1</t>
+  </si>
+  <si>
+    <t>2016/2/1</t>
+  </si>
+  <si>
+    <t>2016/3/1</t>
+  </si>
+  <si>
+    <t>2016/4/1</t>
+  </si>
+  <si>
+    <t>2016/5/1</t>
+  </si>
+  <si>
+    <t>2016/6/1</t>
+  </si>
+  <si>
+    <t>2016/7/1</t>
+  </si>
+  <si>
+    <t>2016/8/1</t>
+  </si>
+  <si>
+    <t>2016/9/1</t>
+  </si>
+  <si>
+    <t>2016/10/1</t>
+  </si>
+  <si>
+    <t>2016/11/1</t>
+  </si>
+  <si>
+    <t>2016/12/1</t>
+  </si>
+  <si>
+    <t>2017/1/1</t>
+  </si>
+  <si>
+    <t>2017/2/1</t>
+  </si>
+  <si>
+    <t>2017/3/1</t>
+  </si>
+  <si>
+    <t>2017/4/1</t>
+  </si>
+  <si>
+    <t>2017/5/1</t>
+  </si>
+  <si>
+    <t>2017/6/1</t>
+  </si>
+  <si>
+    <t>2017/7/1</t>
+  </si>
+  <si>
+    <t>2017/8/1</t>
+  </si>
+  <si>
+    <t>2017/9/1</t>
+  </si>
+  <si>
+    <t>2017/10/1</t>
+  </si>
+  <si>
+    <t>2017/11/1</t>
+  </si>
+  <si>
+    <t>2017/12/1</t>
+  </si>
+  <si>
+    <t>2018/1/1</t>
+  </si>
+  <si>
+    <t>2018/2/1</t>
+  </si>
+  <si>
+    <t>2018/3/1</t>
+  </si>
+  <si>
+    <t>2018/4/1</t>
   </si>
   <si>
     <t>-1</t>
   </si>
   <si>
-    <t>1987/10/1</t>
-  </si>
-  <si>
-    <t>1987/11/1</t>
-  </si>
-  <si>
-    <t>1987/12/1</t>
-  </si>
-  <si>
-    <t>1988/1/1</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>1988/2/1</t>
-  </si>
-  <si>
-    <t>1988/3/1</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>1988/4/1</t>
-  </si>
-  <si>
-    <t>1988/5/1</t>
-  </si>
-  <si>
-    <t>1988/6/1</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>1988/7/1</t>
-  </si>
-  <si>
-    <t>1988/8/1</t>
-  </si>
-  <si>
-    <t>1988/9/1</t>
-  </si>
-  <si>
-    <t>1988/10/1</t>
-  </si>
-  <si>
-    <t>1988/11/1</t>
-  </si>
-  <si>
-    <t>1988/12/1</t>
-  </si>
-  <si>
-    <t>1989/1/1</t>
-  </si>
-  <si>
-    <t>1989/2/1</t>
-  </si>
-  <si>
-    <t>1989/3/1</t>
-  </si>
-  <si>
-    <t>1989/4/1</t>
-  </si>
-  <si>
-    <t>1989/5/1</t>
-  </si>
-  <si>
-    <t>-14</t>
-  </si>
-  <si>
-    <t>1989/6/1</t>
-  </si>
-  <si>
-    <t>1989/7/1</t>
-  </si>
-  <si>
-    <t>1989/8/1</t>
-  </si>
-  <si>
-    <t>1989/9/1</t>
-  </si>
-  <si>
-    <t>1989/10/1</t>
-  </si>
-  <si>
-    <t>1989/11/1</t>
-  </si>
-  <si>
-    <t>1989/12/1</t>
-  </si>
-  <si>
-    <t>1990/1/1</t>
-  </si>
-  <si>
-    <t>1990/2/1</t>
-  </si>
-  <si>
-    <t>1990/3/1</t>
-  </si>
-  <si>
-    <t>1990/4/1</t>
-  </si>
-  <si>
-    <t>1990/5/1</t>
-  </si>
-  <si>
-    <t>1990/6/1</t>
-  </si>
-  <si>
-    <t>1990/7/1</t>
-  </si>
-  <si>
-    <t>1990/8/1</t>
-  </si>
-  <si>
-    <t>-16</t>
-  </si>
-  <si>
-    <t>1990/9/1</t>
-  </si>
-  <si>
-    <t>-19</t>
-  </si>
-  <si>
-    <t>1990/10/1</t>
-  </si>
-  <si>
-    <t>-24</t>
-  </si>
-  <si>
-    <t>1990/11/1</t>
-  </si>
-  <si>
-    <t>-22</t>
-  </si>
-  <si>
-    <t>1990/12/1</t>
-  </si>
-  <si>
-    <t>-26</t>
-  </si>
-  <si>
-    <t>1991/1/1</t>
-  </si>
-  <si>
-    <t>1991/2/1</t>
-  </si>
-  <si>
-    <t>-21</t>
-  </si>
-  <si>
-    <t>1991/3/1</t>
-  </si>
-  <si>
-    <t>-23</t>
-  </si>
-  <si>
-    <t>1991/4/1</t>
-  </si>
-  <si>
-    <t>1991/5/1</t>
-  </si>
-  <si>
-    <t>-28</t>
-  </si>
-  <si>
-    <t>1991/6/1</t>
-  </si>
-  <si>
-    <t>-30</t>
-  </si>
-  <si>
-    <t>1991/7/1</t>
-  </si>
-  <si>
-    <t>1991/8/1</t>
-  </si>
-  <si>
-    <t>1991/9/1</t>
-  </si>
-  <si>
-    <t>-17</t>
-  </si>
-  <si>
-    <t>1991/10/1</t>
-  </si>
-  <si>
-    <t>-27</t>
-  </si>
-  <si>
-    <t>1991/11/1</t>
-  </si>
-  <si>
-    <t>1991/12/1</t>
-  </si>
-  <si>
-    <t>1992/1/1</t>
-  </si>
-  <si>
-    <t>1992/2/1</t>
-  </si>
-  <si>
-    <t>1992/3/1</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>1992/4/1</t>
-  </si>
-  <si>
-    <t>1992/5/1</t>
-  </si>
-  <si>
-    <t>1992/6/1</t>
-  </si>
-  <si>
-    <t>1992/7/1</t>
-  </si>
-  <si>
-    <t>1992/8/1</t>
-  </si>
-  <si>
-    <t>1992/9/1</t>
-  </si>
-  <si>
-    <t>1992/10/1</t>
-  </si>
-  <si>
-    <t>-18</t>
-  </si>
-  <si>
-    <t>1992/11/1</t>
-  </si>
-  <si>
-    <t>1992/12/1</t>
-  </si>
-  <si>
-    <t>1993/1/1</t>
-  </si>
-  <si>
-    <t>1993/2/1</t>
-  </si>
-  <si>
-    <t>1993/3/1</t>
-  </si>
-  <si>
-    <t>1993/4/1</t>
-  </si>
-  <si>
-    <t>1993/5/1</t>
-  </si>
-  <si>
-    <t>1993/6/1</t>
-  </si>
-  <si>
-    <t>1993/7/1</t>
-  </si>
-  <si>
-    <t>1993/8/1</t>
-  </si>
-  <si>
-    <t>1993/9/1</t>
-  </si>
-  <si>
-    <t>1993/10/1</t>
-  </si>
-  <si>
-    <t>-25</t>
-  </si>
-  <si>
-    <t>1993/11/1</t>
-  </si>
-  <si>
-    <t>1993/12/1</t>
-  </si>
-  <si>
-    <t>1994/1/1</t>
-  </si>
-  <si>
-    <t>1994/2/1</t>
-  </si>
-  <si>
-    <t>1994/3/1</t>
-  </si>
-  <si>
-    <t>1994/4/1</t>
-  </si>
-  <si>
-    <t>1994/5/1</t>
-  </si>
-  <si>
-    <t>1994/6/1</t>
-  </si>
-  <si>
-    <t>1994/7/1</t>
-  </si>
-  <si>
-    <t>1994/8/1</t>
-  </si>
-  <si>
-    <t>1994/9/1</t>
-  </si>
-  <si>
-    <t>1994/10/1</t>
-  </si>
-  <si>
-    <t>1994/11/1</t>
-  </si>
-  <si>
-    <t>1994/12/1</t>
-  </si>
-  <si>
-    <t>1995/1/1</t>
-  </si>
-  <si>
-    <t>1995/2/1</t>
-  </si>
-  <si>
-    <t>1995/3/1</t>
-  </si>
-  <si>
-    <t>1995/4/1</t>
-  </si>
-  <si>
-    <t>1995/5/1</t>
-  </si>
-  <si>
-    <t>1995/6/1</t>
-  </si>
-  <si>
-    <t>1995/7/1</t>
-  </si>
-  <si>
-    <t>1995/8/1</t>
-  </si>
-  <si>
-    <t>1995/9/1</t>
-  </si>
-  <si>
-    <t>1995/10/1</t>
-  </si>
-  <si>
-    <t>1995/11/1</t>
-  </si>
-  <si>
-    <t>1995/12/1</t>
-  </si>
-  <si>
-    <t>1996/1/1</t>
-  </si>
-  <si>
-    <t>1996/2/1</t>
-  </si>
-  <si>
-    <t>1996/3/1</t>
-  </si>
-  <si>
-    <t>1996/4/1</t>
-  </si>
-  <si>
-    <t>1996/5/1</t>
-  </si>
-  <si>
-    <t>1996/6/1</t>
-  </si>
-  <si>
-    <t>1996/7/1</t>
-  </si>
-  <si>
-    <t>1996/8/1</t>
-  </si>
-  <si>
-    <t>1996/9/1</t>
-  </si>
-  <si>
-    <t>1996/10/1</t>
-  </si>
-  <si>
-    <t>1996/11/1</t>
-  </si>
-  <si>
-    <t>1996/12/1</t>
-  </si>
-  <si>
-    <t>1997/1/1</t>
-  </si>
-  <si>
-    <t>1997/2/1</t>
-  </si>
-  <si>
-    <t>1997/3/1</t>
-  </si>
-  <si>
-    <t>1997/4/1</t>
-  </si>
-  <si>
-    <t>1997/5/1</t>
-  </si>
-  <si>
-    <t>1997/6/1</t>
-  </si>
-  <si>
-    <t>1997/7/1</t>
-  </si>
-  <si>
-    <t>1997/8/1</t>
-  </si>
-  <si>
-    <t>1997/9/1</t>
-  </si>
-  <si>
-    <t>1997/10/1</t>
-  </si>
-  <si>
-    <t>1997/11/1</t>
-  </si>
-  <si>
-    <t>1997/12/1</t>
-  </si>
-  <si>
-    <t>1998/1/1</t>
-  </si>
-  <si>
-    <t>1998/2/1</t>
-  </si>
-  <si>
-    <t>1998/3/1</t>
-  </si>
-  <si>
-    <t>1998/4/1</t>
-  </si>
-  <si>
-    <t>1998/5/1</t>
-  </si>
-  <si>
-    <t>1998/6/1</t>
-  </si>
-  <si>
-    <t>1998/7/1</t>
-  </si>
-  <si>
-    <t>1998/8/1</t>
-  </si>
-  <si>
-    <t>1998/9/1</t>
-  </si>
-  <si>
-    <t>1998/10/1</t>
-  </si>
-  <si>
-    <t>1998/11/1</t>
-  </si>
-  <si>
-    <t>1998/12/1</t>
-  </si>
-  <si>
-    <t>1999/1/1</t>
-  </si>
-  <si>
-    <t>1999/2/1</t>
-  </si>
-  <si>
-    <t>1999/3/1</t>
-  </si>
-  <si>
-    <t>1999/4/1</t>
-  </si>
-  <si>
-    <t>1999/5/1</t>
-  </si>
-  <si>
-    <t>1999/6/1</t>
-  </si>
-  <si>
-    <t>1999/7/1</t>
-  </si>
-  <si>
-    <t>1999/8/1</t>
-  </si>
-  <si>
-    <t>1999/9/1</t>
-  </si>
-  <si>
-    <t>1999/10/1</t>
-  </si>
-  <si>
-    <t>1999/11/1</t>
-  </si>
-  <si>
-    <t>1999/12/1</t>
-  </si>
-  <si>
-    <t>2000/1/1</t>
-  </si>
-  <si>
-    <t>2000/2/1</t>
-  </si>
-  <si>
-    <t>2000/3/1</t>
-  </si>
-  <si>
-    <t>2000/4/1</t>
-  </si>
-  <si>
-    <t>2000/5/1</t>
-  </si>
-  <si>
-    <t>2000/6/1</t>
-  </si>
-  <si>
-    <t>2000/7/1</t>
-  </si>
-  <si>
-    <t>2000/8/1</t>
-  </si>
-  <si>
-    <t>2000/9/1</t>
-  </si>
-  <si>
-    <t>2000/10/1</t>
-  </si>
-  <si>
-    <t>2000/11/1</t>
-  </si>
-  <si>
-    <t>2000/12/1</t>
-  </si>
-  <si>
-    <t>2001/1/1</t>
-  </si>
-  <si>
-    <t>2001/2/1</t>
-  </si>
-  <si>
-    <t>2001/3/1</t>
-  </si>
-  <si>
-    <t>2001/4/1</t>
-  </si>
-  <si>
-    <t>2001/5/1</t>
-  </si>
-  <si>
-    <t>2001/6/1</t>
-  </si>
-  <si>
-    <t>2001/7/1</t>
-  </si>
-  <si>
-    <t>2001/8/1</t>
-  </si>
-  <si>
-    <t>2001/9/1</t>
-  </si>
-  <si>
-    <t>2001/10/1</t>
-  </si>
-  <si>
-    <t>2001/11/1</t>
-  </si>
-  <si>
-    <t>2001/12/1</t>
-  </si>
-  <si>
-    <t>2002/1/1</t>
-  </si>
-  <si>
-    <t>2002/2/1</t>
-  </si>
-  <si>
-    <t>2002/3/1</t>
-  </si>
-  <si>
-    <t>2002/4/1</t>
-  </si>
-  <si>
-    <t>2002/5/1</t>
-  </si>
-  <si>
-    <t>2002/6/1</t>
-  </si>
-  <si>
-    <t>2002/7/1</t>
-  </si>
-  <si>
-    <t>2002/8/1</t>
-  </si>
-  <si>
-    <t>2002/9/1</t>
-  </si>
-  <si>
-    <t>2002/10/1</t>
-  </si>
-  <si>
-    <t>2002/11/1</t>
-  </si>
-  <si>
-    <t>2002/12/1</t>
-  </si>
-  <si>
-    <t>2003/1/1</t>
-  </si>
-  <si>
-    <t>2003/2/1</t>
-  </si>
-  <si>
-    <t>-31</t>
-  </si>
-  <si>
-    <t>2003/3/1</t>
-  </si>
-  <si>
-    <t>2003/4/1</t>
-  </si>
-  <si>
-    <t>2003/5/1</t>
-  </si>
-  <si>
-    <t>2003/6/1</t>
-  </si>
-  <si>
-    <t>2003/7/1</t>
-  </si>
-  <si>
-    <t>2003/8/1</t>
-  </si>
-  <si>
-    <t>2003/9/1</t>
-  </si>
-  <si>
-    <t>2003/10/1</t>
-  </si>
-  <si>
-    <t>2003/11/1</t>
-  </si>
-  <si>
-    <t>2003/12/1</t>
-  </si>
-  <si>
-    <t>2004/1/1</t>
-  </si>
-  <si>
-    <t>2004/2/1</t>
-  </si>
-  <si>
-    <t>2004/3/1</t>
-  </si>
-  <si>
-    <t>2004/4/1</t>
-  </si>
-  <si>
-    <t>2004/5/1</t>
-  </si>
-  <si>
-    <t>2004/6/1</t>
-  </si>
-  <si>
-    <t>2004/7/1</t>
-  </si>
-  <si>
-    <t>2004/8/1</t>
-  </si>
-  <si>
-    <t>2004/9/1</t>
-  </si>
-  <si>
-    <t>2004/10/1</t>
-  </si>
-  <si>
-    <t>2004/11/1</t>
-  </si>
-  <si>
-    <t>2004/12/1</t>
-  </si>
-  <si>
-    <t>2005/1/1</t>
-  </si>
-  <si>
-    <t>2005/2/1</t>
-  </si>
-  <si>
-    <t>2005/3/1</t>
-  </si>
-  <si>
-    <t>2005/4/1</t>
-  </si>
-  <si>
-    <t>2005/5/1</t>
-  </si>
-  <si>
-    <t>2005/6/1</t>
-  </si>
-  <si>
-    <t>2005/7/1</t>
-  </si>
-  <si>
-    <t>2005/8/1</t>
-  </si>
-  <si>
-    <t>2005/9/1</t>
-  </si>
-  <si>
-    <t>2005/10/1</t>
-  </si>
-  <si>
-    <t>2005/11/1</t>
-  </si>
-  <si>
-    <t>2005/12/1</t>
-  </si>
-  <si>
-    <t>2006/1/1</t>
-  </si>
-  <si>
-    <t>2006/2/1</t>
-  </si>
-  <si>
-    <t>2006/3/1</t>
-  </si>
-  <si>
-    <t>2006/4/1</t>
-  </si>
-  <si>
-    <t>2006/5/1</t>
-  </si>
-  <si>
-    <t>2006/6/1</t>
-  </si>
-  <si>
-    <t>2006/7/1</t>
-  </si>
-  <si>
-    <t>2006/8/1</t>
-  </si>
-  <si>
-    <t>2006/9/1</t>
-  </si>
-  <si>
-    <t>2006/10/1</t>
-  </si>
-  <si>
-    <t>2006/11/1</t>
-  </si>
-  <si>
-    <t>2006/12/1</t>
-  </si>
-  <si>
-    <t>2007/1/1</t>
-  </si>
-  <si>
-    <t>2007/2/1</t>
-  </si>
-  <si>
-    <t>2007/3/1</t>
-  </si>
-  <si>
-    <t>2007/4/1</t>
-  </si>
-  <si>
-    <t>2007/5/1</t>
-  </si>
-  <si>
-    <t>2007/6/1</t>
-  </si>
-  <si>
-    <t>2007/7/1</t>
-  </si>
-  <si>
-    <t>2007/8/1</t>
-  </si>
-  <si>
-    <t>2007/9/1</t>
-  </si>
-  <si>
-    <t>2007/10/1</t>
-  </si>
-  <si>
-    <t>2007/11/1</t>
-  </si>
-  <si>
-    <t>2007/12/1</t>
-  </si>
-  <si>
-    <t>2008/1/1</t>
-  </si>
-  <si>
-    <t>2008/2/1</t>
-  </si>
-  <si>
-    <t>2008/3/1</t>
-  </si>
-  <si>
-    <t>-32</t>
-  </si>
-  <si>
-    <t>2008/4/1</t>
-  </si>
-  <si>
-    <t>-29</t>
-  </si>
-  <si>
-    <t>2008/5/1</t>
-  </si>
-  <si>
-    <t>2008/6/1</t>
-  </si>
-  <si>
-    <t>-33</t>
-  </si>
-  <si>
-    <t>2008/7/1</t>
-  </si>
-  <si>
-    <t>-37</t>
-  </si>
-  <si>
-    <t>2008/8/1</t>
-  </si>
-  <si>
-    <t>2008/9/1</t>
+    <t>2018/5/1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2018/6/1</t>
+  </si>
+  <si>
+    <t>2018/7/1</t>
+  </si>
+  <si>
+    <t>2018/8/1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2018/9/1</t>
+  </si>
+  <si>
+    <t>2018/10/1</t>
+  </si>
+  <si>
+    <t>2018/11/1</t>
+  </si>
+  <si>
+    <t>2018/12/1</t>
+  </si>
+  <si>
+    <t>2019/1/1</t>
+  </si>
+  <si>
+    <t>2019/2/1</t>
+  </si>
+  <si>
+    <t>2019/3/1</t>
+  </si>
+  <si>
+    <t>2019/4/1</t>
+  </si>
+  <si>
+    <t>2019/5/1</t>
+  </si>
+  <si>
+    <t>2019/6/1</t>
+  </si>
+  <si>
+    <t>2019/7/1</t>
+  </si>
+  <si>
+    <t>2019/8/1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2019/9/1</t>
+  </si>
+  <si>
+    <t>2019/10/1</t>
+  </si>
+  <si>
+    <t>2019/11/1</t>
+  </si>
+  <si>
+    <t>2019/12/1</t>
+  </si>
+  <si>
+    <t>2020/1/1</t>
+  </si>
+  <si>
+    <t>2020/2/1</t>
+  </si>
+  <si>
+    <t>2020/3/1</t>
+  </si>
+  <si>
+    <t>2020/4/1</t>
+  </si>
+  <si>
+    <t>2020/5/1</t>
+  </si>
+  <si>
+    <t>2020/6/1</t>
   </si>
   <si>
     <t>-35</t>
   </si>
   <si>
-    <t>2008/10/1</t>
-  </si>
-  <si>
-    <t>2008/11/1</t>
-  </si>
-  <si>
-    <t>-38</t>
-  </si>
-  <si>
-    <t>2008/12/1</t>
-  </si>
-  <si>
-    <t>-41</t>
-  </si>
-  <si>
-    <t>2009/1/1</t>
-  </si>
-  <si>
-    <t>-45</t>
-  </si>
-  <si>
-    <t>2009/2/1</t>
-  </si>
-  <si>
-    <t>-43</t>
-  </si>
-  <si>
-    <t>2009/3/1</t>
-  </si>
-  <si>
-    <t>2009/4/1</t>
-  </si>
-  <si>
-    <t>-44</t>
-  </si>
-  <si>
-    <t>2009/5/1</t>
-  </si>
-  <si>
-    <t>2009/6/1</t>
-  </si>
-  <si>
-    <t>-42</t>
-  </si>
-  <si>
-    <t>2009/7/1</t>
-  </si>
-  <si>
-    <t>2009/8/1</t>
-  </si>
-  <si>
-    <t>-40</t>
-  </si>
-  <si>
-    <t>2009/9/1</t>
-  </si>
-  <si>
-    <t>2009/10/1</t>
-  </si>
-  <si>
-    <t>2009/11/1</t>
-  </si>
-  <si>
-    <t>2009/12/1</t>
-  </si>
-  <si>
-    <t>2010/1/1</t>
-  </si>
-  <si>
-    <t>2010/2/1</t>
-  </si>
-  <si>
-    <t>2010/3/1</t>
-  </si>
-  <si>
-    <t>2010/4/1</t>
-  </si>
-  <si>
-    <t>2010/5/1</t>
-  </si>
-  <si>
-    <t>2010/6/1</t>
-  </si>
-  <si>
-    <t>2010/7/1</t>
-  </si>
-  <si>
-    <t>2010/8/1</t>
-  </si>
-  <si>
-    <t>2010/9/1</t>
-  </si>
-  <si>
-    <t>2010/10/1</t>
-  </si>
-  <si>
-    <t>2010/11/1</t>
-  </si>
-  <si>
-    <t>2010/12/1</t>
-  </si>
-  <si>
-    <t>2011/1/1</t>
-  </si>
-  <si>
-    <t>2011/2/1</t>
-  </si>
-  <si>
-    <t>2011/3/1</t>
-  </si>
-  <si>
-    <t>2011/4/1</t>
-  </si>
-  <si>
-    <t>2011/5/1</t>
-  </si>
-  <si>
-    <t>2011/6/1</t>
-  </si>
-  <si>
-    <t>2011/7/1</t>
-  </si>
-  <si>
-    <t>2011/8/1</t>
-  </si>
-  <si>
-    <t>2011/9/1</t>
-  </si>
-  <si>
-    <t>2011/10/1</t>
-  </si>
-  <si>
-    <t>2011/11/1</t>
-  </si>
-  <si>
-    <t>2011/12/1</t>
-  </si>
-  <si>
-    <t>2012/1/1</t>
-  </si>
-  <si>
-    <t>2012/2/1</t>
-  </si>
-  <si>
-    <t>2012/3/1</t>
-  </si>
-  <si>
-    <t>2012/4/1</t>
-  </si>
-  <si>
-    <t>2012/5/1</t>
-  </si>
-  <si>
-    <t>2012/6/1</t>
-  </si>
-  <si>
-    <t>2012/7/1</t>
-  </si>
-  <si>
-    <t>2012/8/1</t>
-  </si>
-  <si>
-    <t>2012/9/1</t>
-  </si>
-  <si>
-    <t>2012/10/1</t>
-  </si>
-  <si>
-    <t>2012/11/1</t>
-  </si>
-  <si>
-    <t>2012/12/1</t>
-  </si>
-  <si>
-    <t>2013/1/1</t>
-  </si>
-  <si>
-    <t>2013/2/1</t>
-  </si>
-  <si>
-    <t>2013/3/1</t>
-  </si>
-  <si>
-    <t>2013/4/1</t>
-  </si>
-  <si>
-    <t>2013/5/1</t>
-  </si>
-  <si>
-    <t>2013/6/1</t>
-  </si>
-  <si>
-    <t>2013/7/1</t>
-  </si>
-  <si>
-    <t>2013/8/1</t>
-  </si>
-  <si>
-    <t>2013/9/1</t>
-  </si>
-  <si>
-    <t>2013/10/1</t>
-  </si>
-  <si>
-    <t>2013/11/1</t>
-  </si>
-  <si>
-    <t>2013/12/1</t>
-  </si>
-  <si>
-    <t>2014/1/1</t>
-  </si>
-  <si>
-    <t>2014/2/1</t>
-  </si>
-  <si>
-    <t>2014/3/1</t>
-  </si>
-  <si>
-    <t>2014/4/1</t>
-  </si>
-  <si>
-    <t>2014/5/1</t>
-  </si>
-  <si>
-    <t>2014/6/1</t>
-  </si>
-  <si>
-    <t>2014/7/1</t>
-  </si>
-  <si>
-    <t>2014/8/1</t>
-  </si>
-  <si>
-    <t>2014/9/1</t>
-  </si>
-  <si>
-    <t>2014/10/1</t>
-  </si>
-  <si>
-    <t>2014/11/1</t>
-  </si>
-  <si>
-    <t>2014/12/1</t>
-  </si>
-  <si>
-    <t>2015/1/1</t>
-  </si>
-  <si>
-    <t>2015/2/1</t>
-  </si>
-  <si>
-    <t>2015/3/1</t>
-  </si>
-  <si>
-    <t>2015/4/1</t>
-  </si>
-  <si>
-    <t>2015/5/1</t>
-  </si>
-  <si>
-    <t>2015/6/1</t>
-  </si>
-  <si>
-    <t>2015/7/1</t>
-  </si>
-  <si>
-    <t>2015/8/1</t>
-  </si>
-  <si>
-    <t>2015/9/1</t>
-  </si>
-  <si>
-    <t>2015/10/1</t>
-  </si>
-  <si>
-    <t>2015/11/1</t>
-  </si>
-  <si>
-    <t>2015/12/1</t>
-  </si>
-  <si>
-    <t>2016/1/1</t>
-  </si>
-  <si>
-    <t>2016/2/1</t>
-  </si>
-  <si>
-    <t>2016/3/1</t>
-  </si>
-  <si>
-    <t>2016/4/1</t>
-  </si>
-  <si>
-    <t>2016/5/1</t>
-  </si>
-  <si>
-    <t>2016/6/1</t>
-  </si>
-  <si>
-    <t>2016/7/1</t>
-  </si>
-  <si>
-    <t>2016/8/1</t>
-  </si>
-  <si>
-    <t>2016/9/1</t>
-  </si>
-  <si>
-    <t>2016/10/1</t>
-  </si>
-  <si>
-    <t>2016/11/1</t>
-  </si>
-  <si>
-    <t>2016/12/1</t>
-  </si>
-  <si>
-    <t>2017/1/1</t>
-  </si>
-  <si>
-    <t>2017/2/1</t>
-  </si>
-  <si>
-    <t>2017/3/1</t>
-  </si>
-  <si>
-    <t>2017/4/1</t>
-  </si>
-  <si>
-    <t>2017/5/1</t>
-  </si>
-  <si>
-    <t>2017/6/1</t>
-  </si>
-  <si>
-    <t>2017/7/1</t>
-  </si>
-  <si>
-    <t>2017/8/1</t>
-  </si>
-  <si>
-    <t>2017/9/1</t>
-  </si>
-  <si>
-    <t>2017/10/1</t>
-  </si>
-  <si>
-    <t>2017/11/1</t>
-  </si>
-  <si>
-    <t>2017/12/1</t>
-  </si>
-  <si>
-    <t>2018/1/1</t>
-  </si>
-  <si>
-    <t>2018/2/1</t>
-  </si>
-  <si>
-    <t>2018/3/1</t>
-  </si>
-  <si>
-    <t>2018/4/1</t>
-  </si>
-  <si>
-    <t>2018/5/1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2018/6/1</t>
-  </si>
-  <si>
-    <t>2018/7/1</t>
-  </si>
-  <si>
-    <t>2018/8/1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2018/9/1</t>
-  </si>
-  <si>
-    <t>2018/10/1</t>
-  </si>
-  <si>
-    <t>2018/11/1</t>
-  </si>
-  <si>
-    <t>2018/12/1</t>
-  </si>
-  <si>
-    <t>2019/1/1</t>
-  </si>
-  <si>
-    <t>2019/2/1</t>
-  </si>
-  <si>
-    <t>2019/3/1</t>
-  </si>
-  <si>
-    <t>2019/4/1</t>
-  </si>
-  <si>
-    <t>2019/5/1</t>
-  </si>
-  <si>
-    <t>2019/6/1</t>
-  </si>
-  <si>
-    <t>2019/7/1</t>
-  </si>
-  <si>
-    <t>2019/8/1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2019/9/1</t>
-  </si>
-  <si>
-    <t>2019/10/1</t>
-  </si>
-  <si>
-    <t>2019/11/1</t>
-  </si>
-  <si>
-    <t>2019/12/1</t>
-  </si>
-  <si>
-    <t>2020/1/1</t>
-  </si>
-  <si>
-    <t>2020/2/1</t>
-  </si>
-  <si>
-    <t>2020/3/1</t>
-  </si>
-  <si>
-    <t>2020/4/1</t>
-  </si>
-  <si>
-    <t>2020/5/1</t>
-  </si>
-  <si>
-    <t>2020/6/1</t>
-  </si>
-  <si>
     <t>2020/7/1</t>
   </si>
   <si>
@@ -1444,10 +1453,28 @@
     <t>2021/8/1</t>
   </si>
   <si>
+    <t>2021/9/1</t>
+  </si>
+  <si>
     <t>2021/10/1</t>
   </si>
   <si>
+    <t>2021/11/1</t>
+  </si>
+  <si>
     <t>2021/12/1</t>
+  </si>
+  <si>
+    <t>2022/1/1</t>
+  </si>
+  <si>
+    <t>2022/2/1</t>
+  </si>
+  <si>
+    <t>2022/3/1</t>
+  </si>
+  <si>
+    <t>2022/4/1</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1874,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B431"/>
+  <dimension ref="A1:B437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2128,7 +2155,7 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,15 +2211,15 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,7 +2251,7 @@
         <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2256,7 +2283,7 @@
         <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2264,7 +2291,7 @@
         <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2331,7 @@
         <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,15 +2491,15 @@
         <v>101</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" t="s">
         <v>103</v>
-      </c>
-      <c r="B77" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,28 +2507,28 @@
         <v>104</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -2509,7 +2536,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B82" t="s">
         <v>74</v>
@@ -2517,10 +2544,10 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2560,7 +2587,7 @@
         <v>115</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2635,7 @@
         <v>121</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2659,7 @@
         <v>125</v>
       </c>
       <c r="B97" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2667,7 @@
         <v>126</v>
       </c>
       <c r="B98" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2691,7 @@
         <v>129</v>
       </c>
       <c r="B101" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2699,7 @@
         <v>130</v>
       </c>
       <c r="B102" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2707,7 @@
         <v>131</v>
       </c>
       <c r="B103" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2715,7 @@
         <v>132</v>
       </c>
       <c r="B104" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2723,7 @@
         <v>133</v>
       </c>
       <c r="B105" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2731,7 @@
         <v>134</v>
       </c>
       <c r="B106" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2739,7 @@
         <v>135</v>
       </c>
       <c r="B107" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2795,7 @@
         <v>142</v>
       </c>
       <c r="B114" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2784,7 +2811,7 @@
         <v>144</v>
       </c>
       <c r="B116" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2792,7 +2819,7 @@
         <v>145</v>
       </c>
       <c r="B117" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2800,7 +2827,7 @@
         <v>146</v>
       </c>
       <c r="B118" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2840,7 +2867,7 @@
         <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2875,7 @@
         <v>152</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2856,7 +2883,7 @@
         <v>153</v>
       </c>
       <c r="B125" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2864,7 +2891,7 @@
         <v>154</v>
       </c>
       <c r="B126" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2888,7 +2915,7 @@
         <v>157</v>
       </c>
       <c r="B129" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2896,7 +2923,7 @@
         <v>158</v>
       </c>
       <c r="B130" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2912,7 +2939,7 @@
         <v>160</v>
       </c>
       <c r="B132" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2947,7 @@
         <v>161</v>
       </c>
       <c r="B133" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2928,7 +2955,7 @@
         <v>162</v>
       </c>
       <c r="B134" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2944,7 +2971,7 @@
         <v>164</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2960,7 +2987,7 @@
         <v>166</v>
       </c>
       <c r="B138" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +3019,7 @@
         <v>170</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -3088,7 +3115,7 @@
         <v>182</v>
       </c>
       <c r="B154" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3120,7 +3147,7 @@
         <v>186</v>
       </c>
       <c r="B158" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3136,7 +3163,7 @@
         <v>188</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3184,7 +3211,7 @@
         <v>194</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3224,7 +3251,7 @@
         <v>199</v>
       </c>
       <c r="B171" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3280,7 +3307,7 @@
         <v>206</v>
       </c>
       <c r="B178" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3288,7 +3315,7 @@
         <v>207</v>
       </c>
       <c r="B179" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3296,7 +3323,7 @@
         <v>208</v>
       </c>
       <c r="B180" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3336,7 +3363,7 @@
         <v>213</v>
       </c>
       <c r="B185" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -3368,7 +3395,7 @@
         <v>217</v>
       </c>
       <c r="B189" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3376,7 +3403,7 @@
         <v>218</v>
       </c>
       <c r="B190" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3392,7 +3419,7 @@
         <v>220</v>
       </c>
       <c r="B192" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3448,7 +3475,7 @@
         <v>227</v>
       </c>
       <c r="B199" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3464,7 +3491,7 @@
         <v>229</v>
       </c>
       <c r="B201" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3480,7 +3507,7 @@
         <v>231</v>
       </c>
       <c r="B203" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3488,7 +3515,7 @@
         <v>232</v>
       </c>
       <c r="B204" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3552,7 +3579,7 @@
         <v>241</v>
       </c>
       <c r="B212" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3560,7 +3587,7 @@
         <v>242</v>
       </c>
       <c r="B213" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -3608,7 +3635,7 @@
         <v>248</v>
       </c>
       <c r="B219" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3616,7 +3643,7 @@
         <v>249</v>
       </c>
       <c r="B220" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3656,7 +3683,7 @@
         <v>254</v>
       </c>
       <c r="B225" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3664,7 +3691,7 @@
         <v>255</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3736,7 +3763,7 @@
         <v>264</v>
       </c>
       <c r="B235" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -3752,7 +3779,7 @@
         <v>266</v>
       </c>
       <c r="B237" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3760,7 +3787,7 @@
         <v>267</v>
       </c>
       <c r="B238" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3784,7 +3811,7 @@
         <v>270</v>
       </c>
       <c r="B241" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -3792,7 +3819,7 @@
         <v>271</v>
       </c>
       <c r="B242" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3800,7 +3827,7 @@
         <v>272</v>
       </c>
       <c r="B243" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -3816,7 +3843,7 @@
         <v>274</v>
       </c>
       <c r="B245" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -3848,7 +3875,7 @@
         <v>278</v>
       </c>
       <c r="B249" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3856,7 +3883,7 @@
         <v>279</v>
       </c>
       <c r="B250" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -3872,7 +3899,7 @@
         <v>281</v>
       </c>
       <c r="B252" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3880,7 +3907,7 @@
         <v>282</v>
       </c>
       <c r="B253" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -3888,7 +3915,7 @@
         <v>283</v>
       </c>
       <c r="B254" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3896,7 +3923,7 @@
         <v>284</v>
       </c>
       <c r="B255" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3904,7 +3931,7 @@
         <v>285</v>
       </c>
       <c r="B256" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3912,7 +3939,7 @@
         <v>286</v>
       </c>
       <c r="B257" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3920,7 +3947,7 @@
         <v>287</v>
       </c>
       <c r="B258" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3928,7 +3955,7 @@
         <v>288</v>
       </c>
       <c r="B259" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -3936,7 +3963,7 @@
         <v>289</v>
       </c>
       <c r="B260" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -3952,7 +3979,7 @@
         <v>291</v>
       </c>
       <c r="B262" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -3960,7 +3987,7 @@
         <v>292</v>
       </c>
       <c r="B263" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -3976,7 +4003,7 @@
         <v>294</v>
       </c>
       <c r="B265" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -4144,7 +4171,7 @@
         <v>327</v>
       </c>
       <c r="B286" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -4240,12 +4267,12 @@
         <v>339</v>
       </c>
       <c r="B298" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B299" t="s">
         <v>88</v>
@@ -4253,7 +4280,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B300" t="s">
         <v>90</v>
@@ -4261,7 +4288,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B301" t="s">
         <v>303</v>
@@ -4269,7 +4296,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B302" t="s">
         <v>80</v>
@@ -4277,7 +4304,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B303" t="s">
         <v>80</v>
@@ -4285,7 +4312,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B304" t="s">
         <v>236</v>
@@ -4293,7 +4320,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B305" t="s">
         <v>96</v>
@@ -4301,7 +4328,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B306" t="s">
         <v>80</v>
@@ -4309,7 +4336,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B307" t="s">
         <v>76</v>
@@ -4317,7 +4344,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B308" t="s">
         <v>76</v>
@@ -4325,7 +4352,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B309" t="s">
         <v>80</v>
@@ -4333,15 +4360,15 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B310" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B311" t="s">
         <v>88</v>
@@ -4349,7 +4376,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B312" t="s">
         <v>88</v>
@@ -4357,7 +4384,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B313" t="s">
         <v>83</v>
@@ -4365,7 +4392,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B314" t="s">
         <v>78</v>
@@ -4373,15 +4400,15 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B315" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B316" t="s">
         <v>78</v>
@@ -4389,23 +4416,23 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B317" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B318" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B319" t="s">
         <v>78</v>
@@ -4413,7 +4440,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B320" t="s">
         <v>96</v>
@@ -4421,7 +4448,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B321" t="s">
         <v>88</v>
@@ -4429,15 +4456,15 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B322" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B323" t="s">
         <v>88</v>
@@ -4445,7 +4472,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B324" t="s">
         <v>298</v>
@@ -4453,7 +4480,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B325" t="s">
         <v>88</v>
@@ -4461,7 +4488,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B326" t="s">
         <v>76</v>
@@ -4469,7 +4496,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B327" t="s">
         <v>123</v>
@@ -4477,7 +4504,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B328" t="s">
         <v>78</v>
@@ -4485,7 +4512,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B329" t="s">
         <v>76</v>
@@ -4493,7 +4520,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B330" t="s">
         <v>76</v>
@@ -4501,7 +4528,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B331" t="s">
         <v>85</v>
@@ -4509,7 +4536,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B332" t="s">
         <v>78</v>
@@ -4517,7 +4544,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B333" t="s">
         <v>83</v>
@@ -4525,15 +4552,15 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B334" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B335" t="s">
         <v>123</v>
@@ -4541,7 +4568,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B336" t="s">
         <v>76</v>
@@ -4549,7 +4576,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B337" t="s">
         <v>83</v>
@@ -4557,7 +4584,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B338" t="s">
         <v>123</v>
@@ -4565,7 +4592,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B339" t="s">
         <v>80</v>
@@ -4573,7 +4600,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B340" t="s">
         <v>85</v>
@@ -4581,7 +4608,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B341" t="s">
         <v>83</v>
@@ -4589,39 +4616,39 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B342" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B343" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B344" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B345" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B346" t="s">
         <v>74</v>
@@ -4629,7 +4656,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B347" t="s">
         <v>78</v>
@@ -4637,39 +4664,39 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B348" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B349" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B350" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B351" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B352" t="s">
         <v>83</v>
@@ -4677,15 +4704,15 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B353" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B354" t="s">
         <v>27</v>
@@ -4693,23 +4720,23 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B355" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B356" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B357" t="s">
         <v>14</v>
@@ -4717,7 +4744,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B358" t="s">
         <v>16</v>
@@ -4725,39 +4752,39 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B359" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B360" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B361" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B362" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B363" t="s">
         <v>83</v>
@@ -4765,7 +4792,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B364" t="s">
         <v>78</v>
@@ -4773,31 +4800,31 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B365" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B366" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B367" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B368" t="s">
         <v>83</v>
@@ -4805,7 +4832,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B369" t="s">
         <v>78</v>
@@ -4813,15 +4840,15 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B370" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B371" t="s">
         <v>83</v>
@@ -4829,23 +4856,23 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B372" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B373" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B374" t="s">
         <v>3</v>
@@ -4853,15 +4880,15 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B375" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B376" t="s">
         <v>27</v>
@@ -4869,7 +4896,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B377" t="s">
         <v>27</v>
@@ -4877,7 +4904,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B378" t="s">
         <v>6</v>
@@ -4885,7 +4912,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B379" t="s">
         <v>6</v>
@@ -4893,7 +4920,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B380" t="s">
         <v>6</v>
@@ -4901,7 +4928,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B381" t="s">
         <v>6</v>
@@ -4909,23 +4936,23 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B382" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B383" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B384" t="s">
         <v>3</v>
@@ -4933,7 +4960,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B385" t="s">
         <v>14</v>
@@ -4941,7 +4968,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B386" t="s">
         <v>21</v>
@@ -4949,7 +4976,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B387" t="s">
         <v>40</v>
@@ -4957,7 +4984,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B388" t="s">
         <v>44</v>
@@ -4965,47 +4992,47 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B389" t="s">
-        <v>32</v>
+        <v>432</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B390" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B391" t="s">
-        <v>32</v>
+        <v>432</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B392" t="s">
-        <v>32</v>
+        <v>432</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B393" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B394" t="s">
         <v>32</v>
@@ -5013,7 +5040,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B395" t="s">
         <v>40</v>
@@ -5021,7 +5048,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B396" t="s">
         <v>44</v>
@@ -5029,7 +5056,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B397" t="s">
         <v>10</v>
@@ -5037,7 +5064,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B398" t="s">
         <v>21</v>
@@ -5045,7 +5072,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B399" t="s">
         <v>27</v>
@@ -5053,7 +5080,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B400" t="s">
         <v>18</v>
@@ -5061,7 +5088,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B401" t="s">
         <v>40</v>
@@ -5069,15 +5096,15 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B402" t="s">
-        <v>32</v>
+        <v>432</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B403" t="s">
         <v>10</v>
@@ -5085,7 +5112,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B404" t="s">
         <v>21</v>
@@ -5093,23 +5120,23 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B405" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B406" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B407" t="s">
         <v>18</v>
@@ -5117,15 +5144,15 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B408" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B409" t="s">
         <v>18</v>
@@ -5133,7 +5160,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B410" t="s">
         <v>40</v>
@@ -5141,7 +5168,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B411" t="s">
         <v>44</v>
@@ -5149,7 +5176,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B412" t="s">
         <v>37</v>
@@ -5157,15 +5184,15 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B413" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B414" t="s">
         <v>80</v>
@@ -5173,15 +5200,15 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B415" t="s">
-        <v>308</v>
+        <v>462</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B416" t="s">
         <v>298</v>
@@ -5189,7 +5216,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B417" t="s">
         <v>76</v>
@@ -5197,15 +5224,15 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B418" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B419" t="s">
         <v>40</v>
@@ -5213,7 +5240,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B420" t="s">
         <v>10</v>
@@ -5221,15 +5248,15 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B421" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B422" t="s">
         <v>72</v>
@@ -5237,7 +5264,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B423" t="s">
         <v>12</v>
@@ -5245,7 +5272,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B424" t="s">
         <v>14</v>
@@ -5253,7 +5280,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B425" t="s">
         <v>10</v>
@@ -5261,7 +5288,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B426" t="s">
         <v>12</v>
@@ -5269,7 +5296,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B427" t="s">
         <v>37</v>
@@ -5277,40 +5304,87 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B428" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B429" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B430" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B431" t="s">
-        <v>56</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>479</v>
+      </c>
+      <c r="B432" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>480</v>
+      </c>
+      <c r="B433" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>481</v>
+      </c>
+      <c r="B434" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>482</v>
+      </c>
+      <c r="B435" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>483</v>
+      </c>
+      <c r="B436" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>484</v>
+      </c>
+      <c r="B437" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/US/data/CBS/NFIB/Earnings Trends.xlsx
+++ b/US/data/CBS/NFIB/Earnings Trends.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8160F043-15C4-4A2B-9B5D-A0C19A31065A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B576A78-0F84-428E-A66B-AA1D0E1F4F60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="486">
   <si>
     <t>Month/Year</t>
   </si>
@@ -1475,6 +1475,9 @@
   </si>
   <si>
     <t>2022/4/1</t>
+  </si>
+  <si>
+    <t>2022/5/1</t>
   </si>
 </sst>
 </file>
@@ -1874,7 +1877,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B437"/>
+  <dimension ref="A1:B438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5382,9 +5385,18 @@
         <v>105</v>
       </c>
     </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>485</v>
+      </c>
+      <c r="B438" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>